--- a/test_data/test_input.xlsx
+++ b/test_data/test_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="5955"/>
+    <workbookView windowWidth="28800" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="家系" sheetId="2" r:id="rId1"/>
@@ -91,12 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,51 +107,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,59 +122,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +135,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -233,17 +250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -258,25 +266,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,139 +434,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,56 +471,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,6 +507,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -557,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,141 +577,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1025,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="6" max="8" width="9.375"/>
   </cols>
@@ -1113,6 +1124,9 @@
       <c r="H3" s="1">
         <v>44564</v>
       </c>
+    </row>
+    <row r="11" spans="5:5">
+      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1126,7 +1140,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>

--- a/test_data/test_input.xlsx
+++ b/test_data/test_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="家系" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>家系编号</t>
   </si>
@@ -41,6 +41,9 @@
     <t>报告日期</t>
   </si>
   <si>
+    <t>样本数目</t>
+  </si>
+  <si>
     <t>女方姓名1</t>
   </si>
   <si>
@@ -84,6 +87,12 @@
   </si>
   <si>
     <t>正常</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>家系21</t>
   </si>
 </sst>
 </file>
@@ -92,8 +101,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -128,6 +137,74 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -135,38 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -189,64 +244,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,187 +275,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,26 +469,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,28 +543,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +586,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,18 +1045,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="6" max="8" width="9.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,19 +1081,22 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>23</v>
@@ -1098,19 +1110,22 @@
       <c r="H2" s="1">
         <v>44564</v>
       </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -1123,6 +1138,9 @@
       </c>
       <c r="H3" s="1">
         <v>44564</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="5:5">
@@ -1137,13 +1155,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
@@ -1153,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1173,16 +1191,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1190,19 +1208,73 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
